--- a/data/additional/primary/venus/tsv/metadata_venus.xlsx
+++ b/data/additional/primary/venus/tsv/metadata_venus.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luw52cg\Desktop\metadata_primary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_RW\corpus\data\additional\primary\venus\tsv\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEA3F86-74F4-403A-816A-D25AC38C75E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="6840" yWindow="2310" windowWidth="24660" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,210 +64,6 @@
     <t>quotes</t>
   </si>
   <si>
-    <t>rwk1_mkhz_10113-short.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_205-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_633-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_787-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_936-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_945-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_1042-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_1135-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_1136-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_1142-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_1147-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_1885-2.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_1967-2.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_1968-2.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_2028-4.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_2621-3.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_2623-2.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_2625-3.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_2626-4.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_2638-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_2701-2.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_2812-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_2817-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_2823-4.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_3132-2.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_3212-2.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_3252-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_digbib_3304-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_grenz_200-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_grenz_375-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_grenz_630-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_grenz_1618-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_grenz_1920-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_grenz_4617-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_grenz_6262-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_grenz_7700-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_grenz_9076-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_grenz_10819-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_grenz_11760-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_grenz_14802-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_grenz_14861-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_grenz_15490-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_grenz_16296-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_grenz_18080-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_grenz_19331-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_grenz_22091-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_grenz_22136-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_6351-2.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_10021-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_10037-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_10058-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_10578-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_10713-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_11030-2.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_11031-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_11032-short.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_11034-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_11063-short.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_20090-short.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_20094-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_20104-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_20296-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_20433-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_20490-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_20512-short.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_20567-short.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_20568-1.xmi</t>
-  </si>
-  <si>
-    <t>rwk1_mkhz_20617-short.xmi</t>
-  </si>
-  <si>
     <t>venus</t>
   </si>
   <si>
@@ -979,12 +776,216 @@
   </si>
   <si>
     <t>german none</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_10113-short.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_205-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_633-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_787-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_936-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_945-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_1042-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_1135-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_1136-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_1142-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_1147-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_1885-2.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_1967-2.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_1968-2.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_2028-4.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_2621-3.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_2623-2.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_2625-3.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_2626-4.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_2638-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_2701-2.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_2812-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_2817-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_2823-4.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_3132-2.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_3212-2.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_3252-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_digbib_3304-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_grenz_200-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_grenz_375-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_grenz_630-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_grenz_1618-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_grenz_1920-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_grenz_4617-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_grenz_6262-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_grenz_7700-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_grenz_9076-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_grenz_10819-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_grenz_11760-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_grenz_14802-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_grenz_14861-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_grenz_15490-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_grenz_16296-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_grenz_18080-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_grenz_19331-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_grenz_22091-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_grenz_22136-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_6351-2.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_10021-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_10037-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_10058-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_10578-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_10713-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_11030-2.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_11031-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_11032-short.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_11034-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_11063-short.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_20090-short.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_20094-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_20104-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_20296-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_20433-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_20490-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_20512-short.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_20567-short.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_20568-1.tsv</t>
+  </si>
+  <si>
+    <t>rwk1_mkhz_20617-short.tsv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1135,6 +1136,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1170,6 +1188,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1345,11 +1380,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,2994 +1435,2994 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>83</v>
       </c>
-      <c r="D2" t="s">
-        <v>151</v>
-      </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="H2" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J2" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="K2" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L2" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M2" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N2" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>84</v>
       </c>
-      <c r="D3" t="s">
-        <v>152</v>
-      </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="H3" t="s">
-        <v>267</v>
+        <v>199</v>
       </c>
       <c r="I3" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J3" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K3" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L3" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M3" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N3" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>85</v>
       </c>
-      <c r="D4" t="s">
-        <v>153</v>
-      </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="H4" t="s">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c r="I4" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J4" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K4" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L4" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M4" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N4" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>86</v>
       </c>
-      <c r="D5" t="s">
-        <v>154</v>
-      </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="H5" t="s">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="I5" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J5" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K5" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L5" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M5" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N5" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="s">
-        <v>155</v>
-      </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="H6" t="s">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="I6" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J6" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K6" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L6" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M6" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N6" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>88</v>
       </c>
-      <c r="D7" t="s">
-        <v>156</v>
-      </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="H7" t="s">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="I7" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J7" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K7" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L7" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M7" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N7" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
         <v>89</v>
       </c>
-      <c r="D8" t="s">
-        <v>157</v>
-      </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G8" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="H8" t="s">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="I8" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J8" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K8" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L8" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M8" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="N8" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>259</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>90</v>
       </c>
-      <c r="D9" t="s">
-        <v>158</v>
-      </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G9" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="H9" t="s">
-        <v>272</v>
+        <v>204</v>
       </c>
       <c r="I9" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J9" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K9" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L9" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M9" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="N9" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>91</v>
       </c>
-      <c r="D10" t="s">
-        <v>159</v>
-      </c>
       <c r="E10" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s">
-        <v>272</v>
+        <v>204</v>
       </c>
       <c r="I10" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J10" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K10" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L10" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M10" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N10" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>92</v>
       </c>
-      <c r="D11" t="s">
-        <v>160</v>
-      </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s">
-        <v>273</v>
+        <v>205</v>
       </c>
       <c r="I11" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J11" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K11" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L11" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M11" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N11" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>93</v>
       </c>
-      <c r="D12" t="s">
-        <v>161</v>
-      </c>
       <c r="E12" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="F12" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>215</v>
+        <v>147</v>
       </c>
       <c r="H12" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="I12" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J12" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K12" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L12" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M12" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="N12" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="F13" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="H13" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="I13" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J13" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K13" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L13" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M13" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="N13" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="H14" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c r="I14" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J14" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K14" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L14" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M14" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="N14" t="s">
-        <v>315</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>265</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="H15" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c r="I15" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J15" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K15" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L15" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M15" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="N15" t="s">
-        <v>316</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="H16" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="I16" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J16" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K16" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L16" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M16" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="N16" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="F17" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="H17" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="I17" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J17" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K17" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L17" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M17" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N17" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G18" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="H18" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="I18" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J18" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K18" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L18" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M18" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N18" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G19" t="s">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="H19" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="I19" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J19" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K19" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L19" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M19" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N19" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G20" t="s">
-        <v>223</v>
+        <v>155</v>
       </c>
       <c r="H20" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="I20" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J20" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K20" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L20" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N20" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G21" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="H21" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="I21" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J21" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K21" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N21" t="s">
-        <v>316</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G22" t="s">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c r="H22" t="s">
-        <v>280</v>
+        <v>212</v>
       </c>
       <c r="I22" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J22" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K22" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="N22" t="s">
-        <v>317</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G23" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="H23" t="s">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c r="I23" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J23" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K23" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="N23" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G24" t="s">
-        <v>227</v>
+        <v>159</v>
       </c>
       <c r="H24" t="s">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c r="I24" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J24" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="N24" t="s">
-        <v>315</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G25" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="H25" t="s">
-        <v>282</v>
+        <v>214</v>
       </c>
       <c r="I25" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J25" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K25" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="N25" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>276</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G26" t="s">
-        <v>229</v>
+        <v>161</v>
       </c>
       <c r="H26" t="s">
-        <v>283</v>
+        <v>215</v>
       </c>
       <c r="I26" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J26" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K26" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="N26" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G27" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="H27" t="s">
-        <v>284</v>
+        <v>216</v>
       </c>
       <c r="I27" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J27" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K27" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N27" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="F28" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G28" t="s">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c r="H28" t="s">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="I28" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J28" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L28" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M28" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N28" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" t="s">
         <v>110</v>
       </c>
-      <c r="D29" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29" t="s">
-        <v>178</v>
-      </c>
       <c r="F29" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="G29" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="H29" t="s">
-        <v>286</v>
+        <v>218</v>
       </c>
       <c r="I29" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J29" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K29" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N29" t="s">
-        <v>316</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="F30" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G30" t="s">
-        <v>233</v>
+        <v>165</v>
       </c>
       <c r="H30" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I30" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J30" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="K30" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M30" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="N30" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="F31" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G31" t="s">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="H31" t="s">
-        <v>287</v>
+        <v>219</v>
       </c>
       <c r="I31" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J31" t="s">
-        <v>303</v>
+        <v>235</v>
       </c>
       <c r="K31" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L31" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M31" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="N31" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="F32" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G32" t="s">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="H32" t="s">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="I32" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J32" t="s">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="K32" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M32" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="N32" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="F33" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G33" t="s">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c r="H33" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I33" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J33" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="K33" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L33" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M33" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N33" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="F34" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G34" t="s">
+        <v>169</v>
+      </c>
+      <c r="H34" t="s">
+        <v>137</v>
+      </c>
+      <c r="I34" t="s">
+        <v>230</v>
+      </c>
+      <c r="J34" t="s">
         <v>237</v>
       </c>
-      <c r="H34" t="s">
-        <v>205</v>
-      </c>
-      <c r="I34" t="s">
-        <v>298</v>
-      </c>
-      <c r="J34" t="s">
-        <v>305</v>
-      </c>
       <c r="K34" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L34" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M34" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="N34" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="F35" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G35" t="s">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="H35" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J35" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="K35" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L35" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M35" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N35" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" t="s">
         <v>171</v>
       </c>
-      <c r="E36" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" t="s">
-        <v>239</v>
-      </c>
       <c r="H36" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I36" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J36" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="K36" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M36" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="N36" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="F37" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G37" t="s">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="H37" t="s">
-        <v>289</v>
+        <v>221</v>
       </c>
       <c r="I37" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J37" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="K37" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L37" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M37" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="N37" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>288</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="F38" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G38" t="s">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="H38" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J38" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="K38" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L38" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M38" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N38" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>289</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="E39" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="F39" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G39" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="H39" t="s">
-        <v>290</v>
+        <v>222</v>
       </c>
       <c r="I39" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J39" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="K39" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L39" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M39" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="N39" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="E40" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="F40" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G40" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="H40" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I40" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J40" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="K40" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L40" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M40" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="N40" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>291</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="E41" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="F41" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G41" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="H41" t="s">
-        <v>291</v>
+        <v>223</v>
       </c>
       <c r="I41" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J41" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="K41" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L41" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M41" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="N41" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>292</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="F42" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G42" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="H42" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="I42" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J42" t="s">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="K42" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L42" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M42" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N42" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>293</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="F43" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G43" t="s">
+        <v>178</v>
+      </c>
+      <c r="H43" t="s">
+        <v>137</v>
+      </c>
+      <c r="I43" t="s">
+        <v>230</v>
+      </c>
+      <c r="J43" t="s">
+        <v>237</v>
+      </c>
+      <c r="K43" t="s">
+        <v>230</v>
+      </c>
+      <c r="L43" t="s">
+        <v>230</v>
+      </c>
+      <c r="M43" t="s">
+        <v>241</v>
+      </c>
+      <c r="N43" t="s">
         <v>246</v>
-      </c>
-      <c r="H43" t="s">
-        <v>205</v>
-      </c>
-      <c r="I43" t="s">
-        <v>298</v>
-      </c>
-      <c r="J43" t="s">
-        <v>305</v>
-      </c>
-      <c r="K43" t="s">
-        <v>298</v>
-      </c>
-      <c r="L43" t="s">
-        <v>298</v>
-      </c>
-      <c r="M43" t="s">
-        <v>309</v>
-      </c>
-      <c r="N43" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="E44" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="F44" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G44" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="H44" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I44" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J44" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="K44" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L44" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M44" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N44" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>295</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="E45" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="F45" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G45" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="H45" t="s">
-        <v>293</v>
+        <v>225</v>
       </c>
       <c r="I45" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J45" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="K45" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L45" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N45" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="F46" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G46" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="H46" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I46" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J46" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="K46" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L46" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M46" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N46" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>297</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="E47" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="F47" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G47" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="H47" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I47" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J47" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="K47" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M47" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N47" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="E48" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="F48" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G48" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="H48" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I48" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J48" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="K48" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L48" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M48" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N48" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>299</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="E49" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="F49" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="G49" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="H49" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I49" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J49" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="K49" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L49" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M49" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N49" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="F50" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="G50" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="H50" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I50" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J50" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="K50" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L50" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M50" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N50" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>301</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="E51" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="F51" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="G51" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="H51" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J51" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="K51" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L51" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M51" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N51" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>302</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="F52" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="G52" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="H52" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I52" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J52" t="s">
-        <v>306</v>
+        <v>238</v>
       </c>
       <c r="K52" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L52" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M52" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="N52" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>303</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="E53" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="F53" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="G53" t="s">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="H53" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I53" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J53" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="K53" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L53" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M53" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N53" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>304</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="E54" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="F54" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="G54" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="H54" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I54" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J54" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="K54" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L54" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M54" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N54" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>305</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="E55" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="F55" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="G55" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="H55" t="s">
-        <v>294</v>
+        <v>226</v>
       </c>
       <c r="I55" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J55" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="K55" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L55" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M55" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N55" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>306</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="E56" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="F56" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="G56" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="H56" t="s">
-        <v>295</v>
+        <v>227</v>
       </c>
       <c r="I56" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J56" t="s">
-        <v>307</v>
+        <v>239</v>
       </c>
       <c r="K56" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L56" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M56" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N56" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>307</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="E57" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="F57" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="G57" t="s">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c r="H57" t="s">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="I57" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J57" t="s">
-        <v>307</v>
+        <v>239</v>
       </c>
       <c r="K57" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L57" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M57" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N57" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>308</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="E58" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="F58" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="G58" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="H58" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I58" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J58" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="K58" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L58" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M58" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N58" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>309</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="E59" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="F59" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="G59" t="s">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="H59" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I59" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J59" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="K59" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L59" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M59" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="N59" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>310</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="E60" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="F60" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="G60" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="H60" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I60" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J60" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="K60" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L60" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M60" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N60" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>311</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="D61" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="F61" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="G61" t="s">
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="H61" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I61" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J61" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="K61" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L61" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M61" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N61" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="E62" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="F62" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="G62" t="s">
-        <v>260</v>
+        <v>192</v>
       </c>
       <c r="H62" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I62" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J62" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="K62" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L62" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M62" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="N62" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>313</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="E63" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="G63" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="H63" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I63" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J63" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="K63" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L63" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M63" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N63" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="E64" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="G64" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="H64" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I64" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J64" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="K64" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L64" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M64" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N64" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="E65" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="G65" t="s">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c r="H65" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I65" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J65" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="K65" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L65" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M65" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N65" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="D66" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="E66" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="F66" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="G66" t="s">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="H66" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J66" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="K66" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L66" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M66" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N66" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="E67" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="G67" t="s">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="H67" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I67" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J67" t="s">
-        <v>307</v>
+        <v>239</v>
       </c>
       <c r="K67" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L67" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M67" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N67" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="E68" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="F68" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="G68" t="s">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="H68" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="I68" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="J68" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K68" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="L68" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M68" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N68" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
         <v>82</v>
       </c>
-      <c r="C69" t="s">
-        <v>150</v>
-      </c>
       <c r="D69" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="E69" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="F69" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="G69" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="H69" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I69" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J69" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="K69" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="L69" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M69" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N69" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
